--- a/PREMIER SOUND FACTORY/Princess Koto KAGUYA/xlsx/Princess Koto KAGUYA.xlsx
+++ b/PREMIER SOUND FACTORY/Princess Koto KAGUYA/xlsx/Princess Koto KAGUYA.xlsx
@@ -33,6 +33,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -58,6 +73,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -74,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -600,13 +630,22 @@
   <si>
     <t>効果音</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Kaguya(En)</t>
+  </si>
+  <si>
+    <t>Kaguya(Ja)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -651,8 +690,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +751,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -764,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,13 +972,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1219,7 +1277,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1227,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1247,100 +1305,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1348,12 +1365,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1361,13 +1374,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1376,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -1388,13 +1401,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1403,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1415,13 +1428,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1430,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1442,13 +1455,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1457,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1469,13 +1482,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1484,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -1496,13 +1509,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -1511,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -1523,13 +1536,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -1538,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -1550,13 +1563,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -1565,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -1577,13 +1590,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -1592,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12">
         <v>120</v>
@@ -1604,13 +1617,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -1619,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="12">
         <v>120</v>
@@ -1631,13 +1644,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -1646,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="12">
         <v>120</v>
@@ -1658,13 +1671,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -1673,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G16" s="12">
         <v>120</v>
@@ -1685,13 +1698,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -1700,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12">
         <v>120</v>
@@ -1712,13 +1725,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -1727,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="12">
         <v>120</v>
@@ -1738,26 +1751,54 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="12">
+        <v>120</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="12">
+        <v>120</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3180,26 +3221,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3218,7 +3288,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3227,7 +3297,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3236,7 +3306,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3246,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3266,100 +3336,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3367,12 +3396,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -3380,13 +3405,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3395,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12">
         <v>120</v>
@@ -3407,13 +3432,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3422,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -3434,13 +3459,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -3449,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -3461,13 +3486,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -3476,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -3488,13 +3513,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -3503,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -3515,13 +3540,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -3530,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -3542,13 +3567,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -3557,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -3569,13 +3594,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -3584,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -3596,13 +3621,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -3611,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12">
         <v>120</v>
@@ -3623,13 +3648,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -3638,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="12">
         <v>120</v>
@@ -3650,13 +3675,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -3665,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" s="12">
         <v>120</v>
@@ -3677,13 +3702,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -3692,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G16" s="12">
         <v>120</v>
@@ -3704,13 +3729,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -3719,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12">
         <v>120</v>
@@ -3731,13 +3756,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -3746,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G18" s="12">
         <v>120</v>
@@ -3757,26 +3782,54 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="12">
+        <v>120</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="12">
+        <v>120</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -5199,26 +5252,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5236,7 +5318,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5245,7 +5327,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5254,7 +5336,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
